--- a/main/ExamQuestionsLecure2.xlsx
+++ b/main/ExamQuestionsLecure2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEO309\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01368893-70A0-4555-8E43-3639037736F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2ACEF-ABAE-4B52-8EF4-B9C8E39168E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955" xr2:uid="{7B30B9D5-F944-4DC7-BB71-4FEBCEA1AEDA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11952" xr2:uid="{7B30B9D5-F944-4DC7-BB71-4FEBCEA1AEDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,69 +25,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>What is Biogeography</t>
-  </si>
-  <si>
-    <t>What are the main attributes needed for it to be life?</t>
-  </si>
-  <si>
-    <t>Explain one attribute needed for life. Why is that attribute important?</t>
-  </si>
-  <si>
-    <t>What is the economic value of biodiversity?</t>
-  </si>
-  <si>
-    <t>What is an ecological depth?</t>
-  </si>
-  <si>
-    <t>Can the planet sustain well all people of the world?. Provide some data for your explanation.</t>
-  </si>
-  <si>
-    <t>What bottlenecks are already visible in society, as it comes down to the excessive number of people?</t>
-  </si>
-  <si>
-    <t>What is a pattern</t>
-  </si>
-  <si>
-    <t>What is a process</t>
-  </si>
-  <si>
-    <t>What is the geenral aproach to prodcue knowledge in biogeography?</t>
-  </si>
-  <si>
-    <t>What is a transect?</t>
-  </si>
-  <si>
-    <t>What is point count?</t>
-  </si>
-  <si>
-    <t>What is a quadrant?</t>
-  </si>
-  <si>
-    <t>Why is sampling size an issue when counting the number of species in a given place?</t>
-  </si>
-  <si>
-    <t>Why the time and/or duration of sampling can affect conclusions about biodiversity? Provide an example.</t>
-  </si>
-  <si>
-    <t>Are conclusions based on data collected over the same number of Standarized samples reliable?. Provide an example.</t>
-  </si>
-  <si>
-    <t>What is pseudo-replication</t>
-  </si>
-  <si>
-    <t>What is self-correlation</t>
-  </si>
-  <si>
-    <t>What is multicollineraity</t>
-  </si>
-  <si>
-    <t>What is the problem with scale, in the mis-match between pattern and process?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>At the most basic level how can you explain the presence of a species in a given place?</t>
+  </si>
+  <si>
+    <t>At the most basic level how can you explain the absence of a species in a given place?</t>
+  </si>
+  <si>
+    <t>What is speciation?</t>
+  </si>
+  <si>
+    <t>How many mechanisms can explain the origincation of a species?</t>
+  </si>
+  <si>
+    <t>Explain one mechanism of origination</t>
+  </si>
+  <si>
+    <t>How old is planet Earth?</t>
+  </si>
+  <si>
+    <t>How old is planet is the moon?</t>
+  </si>
+  <si>
+    <t>What is a protocel?. Indicate when it originated</t>
+  </si>
+  <si>
+    <t>Where did life originated?</t>
+  </si>
+  <si>
+    <t>What is parspermia?</t>
+  </si>
+  <si>
+    <t>What is the iterim phase of a geographical range?</t>
+  </si>
+  <si>
+    <t>What is outward and inward extinction?. Which one is the most likely, explain?</t>
+  </si>
+  <si>
+    <t>What is a mass exticntion event?</t>
+  </si>
+  <si>
+    <t>How many mass extiction events have happended and why?</t>
+  </si>
+  <si>
+    <t>Explain how the great dying most likely happened?</t>
+  </si>
+  <si>
+    <t>Why the best record of life goes back only 500million years back?</t>
+  </si>
+  <si>
+    <t>Are we in a mass extinction event currentlty?. Explain one piece of evidence?</t>
+  </si>
+  <si>
+    <t>Why are species hard to report as extinct?</t>
+  </si>
+  <si>
+    <t>How long has it take planet Earth to recover from a mass exticntion events?</t>
   </si>
 </sst>
 </file>
@@ -452,199 +446,192 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/ExamQuestionsLecure2.xlsx
+++ b/main/ExamQuestionsLecure2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEO309\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2ACEF-ABAE-4B52-8EF4-B9C8E39168E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FC3EE-80CF-4879-ABA4-08B16933E472}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11952" xr2:uid="{7B30B9D5-F944-4DC7-BB71-4FEBCEA1AEDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>At the most basic level how can you explain the presence of a species in a given place?</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>What is speciation?</t>
-  </si>
-  <si>
-    <t>How many mechanisms can explain the origincation of a species?</t>
   </si>
   <si>
     <t>Explain one mechanism of origination</t>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC6B6D-08AE-4710-8CC3-A8C2232109E1}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,12 +596,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -629,9 +621,6 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
